--- a/Spring系列/spring/复习版/06IOC源码_getbean&循环依赖问题.xlsx
+++ b/Spring系列/spring/复习版/06IOC源码_getbean&循环依赖问题.xlsx
@@ -17,9 +17,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -31,6 +31,30 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -38,16 +62,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -60,6 +77,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -67,7 +99,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -83,16 +121,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,17 +144,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -124,38 +156,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,7 +168,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,19 +189,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,7 +315,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,13 +339,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,127 +357,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,6 +374,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -402,6 +413,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -412,26 +438,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,17 +466,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,145 +482,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -735,14 +735,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -761,7 +761,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7414260" y="1905"/>
+          <a:off x="7223760" y="1905"/>
           <a:ext cx="8199120" cy="5570220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2204,7 +2204,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6883400" cy="6871335"/>
+    <xdr:ext cx="6883400" cy="7007225"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="文本框 3"/>
@@ -2213,7 +2213,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="426720" y="121920"/>
-          <a:ext cx="6883400" cy="6871335"/>
+          <a:ext cx="6883400" cy="7007225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2245,7 +2245,6 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
-              <a:ln/>
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2260,7 +2259,6 @@
             <a:t>doGetBean 的执行流程。如下：</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
-            <a:ln/>
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -2463,7 +2461,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>- 多例调用getObjectForBeanInstance方法</a:t>
+            <a:t>- 多例调用getObjectForBeanInstance方法 </a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
         </a:p>
@@ -2796,7 +2794,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I67" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A45" workbookViewId="0">
       <selection activeCell="BN83" sqref="BN83"/>
     </sheetView>
   </sheetViews>
